--- a/tests/regression_data/kofskey1972a_moustapha_1.xlsx
+++ b/tests/regression_data/kofskey1972a_moustapha_1.xlsx
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>81.37406660821937</v>
+        <v>81.37406661012211</v>
       </c>
       <c r="D2" t="n">
-        <v>81.37406660821937</v>
+        <v>81.37406661012211</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>81.37406660821937</v>
+        <v>81.37406661012211</v>
       </c>
       <c r="H2" t="n">
-        <v>81.37406660821937</v>
+        <v>81.37406661012211</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -767,40 +767,40 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>132687.3271489632</v>
+        <v>132687.3271488769</v>
       </c>
       <c r="L2" t="n">
-        <v>292.2988108009753</v>
+        <v>292.298810800921</v>
       </c>
       <c r="M2" t="n">
-        <v>418473.5617302094</v>
+        <v>418473.561730155</v>
       </c>
       <c r="N2" t="n">
         <v>3782.91734771824</v>
       </c>
       <c r="O2" t="n">
-        <v>1.582211059718331</v>
+        <v>1.582211059717596</v>
       </c>
       <c r="P2" t="n">
-        <v>0.9994975900564711</v>
+        <v>0.9994975900564708</v>
       </c>
       <c r="Q2" t="n">
-        <v>342.8767246973325</v>
+        <v>342.8767246973007</v>
       </c>
       <c r="R2" t="n">
-        <v>1.816878495520458e-05</v>
+        <v>1.816878495520192e-05</v>
       </c>
       <c r="S2" t="n">
-        <v>0.02582026297034789</v>
+        <v>0.02582026297034379</v>
       </c>
       <c r="T2" t="n">
-        <v>1006.644845917845</v>
+        <v>1006.644845917842</v>
       </c>
       <c r="U2" t="n">
-        <v>717.7104818210299</v>
+        <v>717.7104818210273</v>
       </c>
       <c r="V2" t="n">
-        <v>1.402577879820995</v>
+        <v>1.402577879820996</v>
       </c>
       <c r="W2" t="n">
         <v>137999.9999977021</v>
@@ -883,16 +883,16 @@
       <c r="BA2" t="inlineStr"/>
       <c r="BB2" t="inlineStr"/>
       <c r="BC2" t="n">
-        <v>0.237327472957083</v>
+        <v>0.2373274729626544</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.237327472957083</v>
+        <v>0.2373274729626544</v>
       </c>
       <c r="BE2" t="n">
-        <v>185379.7495108424</v>
+        <v>185379.7495151181</v>
       </c>
       <c r="BF2" t="n">
-        <v>2.764081725270398</v>
+        <v>2.764081725333746</v>
       </c>
       <c r="BG2" t="n">
         <v>421784.4310884894</v>
@@ -907,136 +907,136 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>260.8435358996247</v>
+        <v>260.8435361258713</v>
       </c>
       <c r="D3" t="n">
-        <v>110.2372417281971</v>
+        <v>110.2372418238131</v>
       </c>
       <c r="E3" t="n">
-        <v>236.4045277840038</v>
+        <v>236.4045279890529</v>
       </c>
       <c r="F3" t="n">
         <v>65</v>
       </c>
       <c r="G3" t="n">
-        <v>260.8435358996247</v>
+        <v>260.8435361258713</v>
       </c>
       <c r="H3" t="n">
-        <v>110.2372417281971</v>
+        <v>110.2372418238131</v>
       </c>
       <c r="I3" t="n">
-        <v>236.4045277840038</v>
+        <v>236.4045279890529</v>
       </c>
       <c r="J3" t="n">
         <v>65</v>
       </c>
       <c r="K3" t="n">
-        <v>87662.55064959009</v>
+        <v>87662.55058775291</v>
       </c>
       <c r="L3" t="n">
-        <v>261.6514432858723</v>
+        <v>261.6514432268831</v>
       </c>
       <c r="M3" t="n">
-        <v>387764.75597818</v>
+        <v>387764.7559190648</v>
       </c>
       <c r="N3" t="n">
-        <v>3790.844845252645</v>
+        <v>3790.844845229063</v>
       </c>
       <c r="O3" t="n">
-        <v>1.167944209629726</v>
+        <v>1.167944209069544</v>
       </c>
       <c r="P3" t="n">
-        <v>0.9993385484593137</v>
+        <v>0.9993385484589943</v>
       </c>
       <c r="Q3" t="n">
-        <v>324.3817359477087</v>
+        <v>324.3817359110997</v>
       </c>
       <c r="R3" t="n">
-        <v>1.663530173269565e-05</v>
+        <v>1.663530172967916e-05</v>
       </c>
       <c r="S3" t="n">
-        <v>0.02346956089840979</v>
+        <v>0.02346956089381021</v>
       </c>
       <c r="T3" t="n">
-        <v>1005.261030668569</v>
+        <v>1005.261030666676</v>
       </c>
       <c r="U3" t="n">
-        <v>716.5918628625943</v>
+        <v>716.5918628609753</v>
       </c>
       <c r="V3" t="n">
-        <v>1.402836234635456</v>
+        <v>1.402836234635984</v>
       </c>
       <c r="W3" t="n">
-        <v>134239.2176006191</v>
+        <v>134239.2176116516</v>
       </c>
       <c r="X3" t="n">
-        <v>295.5912801767956</v>
+        <v>295.591280176821</v>
       </c>
       <c r="Y3" t="n">
-        <v>421784.43108859</v>
+        <v>421784.4310885896</v>
       </c>
       <c r="Z3" t="n">
-        <v>3790.844845257868</v>
+        <v>3790.844845234287</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.582829191866702</v>
+        <v>1.582829191996711</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.9995338639562292</v>
+        <v>0.9995338639561917</v>
       </c>
       <c r="AC3" t="n">
-        <v>344.8002790822721</v>
+        <v>344.8002790822982</v>
       </c>
       <c r="AD3" t="n">
-        <v>1.832898623873914e-05</v>
+        <v>1.832898623874196e-05</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.02606677803235904</v>
+        <v>0.02606677803236447</v>
       </c>
       <c r="AF3" t="n">
-        <v>1006.759835863175</v>
+        <v>1006.759835863356</v>
       </c>
       <c r="AG3" t="n">
-        <v>717.8534406541509</v>
+        <v>717.8534406541796</v>
       </c>
       <c r="AH3" t="n">
-        <v>1.402458745542482</v>
+        <v>1.402458745542678</v>
       </c>
       <c r="AI3" t="n">
-        <v>134239.2176006191</v>
+        <v>134239.2176116513</v>
       </c>
       <c r="AJ3" t="n">
-        <v>295.5912801767956</v>
+        <v>295.5912801768211</v>
       </c>
       <c r="AK3" t="n">
-        <v>421784.43108859</v>
+        <v>421784.4310885896</v>
       </c>
       <c r="AL3" t="n">
-        <v>3790.844845257868</v>
+        <v>3790.844845234287</v>
       </c>
       <c r="AM3" t="n">
-        <v>1.582829191866702</v>
+        <v>1.582829191996706</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.9995338639562292</v>
+        <v>0.9995338639561917</v>
       </c>
       <c r="AO3" t="n">
-        <v>344.8002790822721</v>
+        <v>344.8002790822983</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.832898623873914e-05</v>
+        <v>1.832898623874197e-05</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.02606677803235904</v>
+        <v>0.02606677803236448</v>
       </c>
       <c r="AR3" t="n">
-        <v>1006.759835863175</v>
+        <v>1006.759835863356</v>
       </c>
       <c r="AS3" t="n">
-        <v>717.8534406541509</v>
+        <v>717.8534406541796</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.402458745542482</v>
+        <v>1.402458745542678</v>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
@@ -1044,19 +1044,19 @@
         </is>
       </c>
       <c r="AV3" t="n">
-        <v>2.313704783318826e-13</v>
+        <v>-3.643288865040617e-10</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.08074391413680029</v>
+        <v>0.0807439141381763</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.01698149003572443</v>
+        <v>0.01698149003645231</v>
       </c>
       <c r="AY3" t="n">
         <v>0</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.04899573774549409</v>
+        <v>0.04899573774614224</v>
       </c>
       <c r="BA3" t="n">
         <v>0.01476668635558176</v>
@@ -1065,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.8041252234425227</v>
+        <v>0.8041252242307446</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.8041252234425227</v>
+        <v>0.8041252242307448</v>
       </c>
       <c r="BE3" t="n">
-        <v>479081.3158274082</v>
+        <v>479081.3161000366</v>
       </c>
       <c r="BF3" t="n">
-        <v>2.764081725275108</v>
+        <v>2.764081726346837</v>
       </c>
       <c r="BG3" t="n">
         <v>421784.4310884894</v>
@@ -1091,136 +1091,136 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>247.3527181711524</v>
+        <v>247.3527180860433</v>
       </c>
       <c r="D4" t="n">
-        <v>106.4523630976029</v>
+        <v>106.4523630785924</v>
       </c>
       <c r="E4" t="n">
-        <v>223.2739608140494</v>
+        <v>223.2739607288256</v>
       </c>
       <c r="F4" t="n">
-        <v>64.50916846156484</v>
+        <v>64.50916845704387</v>
       </c>
       <c r="G4" t="n">
-        <v>247.3527181711524</v>
+        <v>247.3527180860433</v>
       </c>
       <c r="H4" t="n">
-        <v>106.4523630976029</v>
+        <v>106.4523630785924</v>
       </c>
       <c r="I4" t="n">
-        <v>223.2739608140494</v>
+        <v>223.2739607288256</v>
       </c>
       <c r="J4" t="n">
-        <v>64.50916846156483</v>
+        <v>64.50916845704387</v>
       </c>
       <c r="K4" t="n">
-        <v>91968.07544896235</v>
+        <v>91968.07547835613</v>
       </c>
       <c r="L4" t="n">
-        <v>265.0738822225417</v>
+        <v>265.0738822435592</v>
       </c>
       <c r="M4" t="n">
-        <v>391192.7474950667</v>
+        <v>391192.7475161122</v>
       </c>
       <c r="N4" t="n">
-        <v>3790.10721021946</v>
+        <v>3790.107210207171</v>
       </c>
       <c r="O4" t="n">
-        <v>1.209470080441181</v>
+        <v>1.209470080731752</v>
       </c>
       <c r="P4" t="n">
-        <v>0.9993527232080802</v>
+        <v>0.9993527232081528</v>
       </c>
       <c r="Q4" t="n">
-        <v>326.4990291570719</v>
+        <v>326.4990291700333</v>
       </c>
       <c r="R4" t="n">
-        <v>1.680996299747838e-05</v>
+        <v>1.680996299854863e-05</v>
       </c>
       <c r="S4" t="n">
-        <v>0.02373611914516927</v>
+        <v>0.02373611914680383</v>
       </c>
       <c r="T4" t="n">
-        <v>1005.387991109496</v>
+        <v>1005.387991110347</v>
       </c>
       <c r="U4" t="n">
-        <v>716.69097829625</v>
+        <v>716.6909782968852</v>
       </c>
       <c r="V4" t="n">
-        <v>1.402819376210859</v>
+        <v>1.402819376210804</v>
       </c>
       <c r="W4" t="n">
-        <v>134584.7794989077</v>
+        <v>134584.7795016003</v>
       </c>
       <c r="X4" t="n">
-        <v>295.5920814747972</v>
+        <v>295.5920814749033</v>
       </c>
       <c r="Y4" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.43108859</v>
       </c>
       <c r="Z4" t="n">
-        <v>3790.107210217787</v>
+        <v>3790.107210212388</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.586901315836485</v>
+        <v>1.586901315867678</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.9995326874194723</v>
+        <v>0.9995326874194644</v>
       </c>
       <c r="AC4" t="n">
-        <v>344.8011005849182</v>
+        <v>344.8011005849826</v>
       </c>
       <c r="AD4" t="n">
-        <v>1.832907494864151e-05</v>
+        <v>1.832907494864704e-05</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.0260669485687283</v>
+        <v>0.02606694856873707</v>
       </c>
       <c r="AF4" t="n">
-        <v>1006.765509745386</v>
+        <v>1006.765509745434</v>
       </c>
       <c r="AG4" t="n">
-        <v>717.8543407727487</v>
+        <v>717.8543407727601</v>
       </c>
       <c r="AH4" t="n">
-        <v>1.4024648909438</v>
+        <v>1.402464890943843</v>
       </c>
       <c r="AI4" t="n">
-        <v>134584.7794989077</v>
+        <v>134584.7795016003</v>
       </c>
       <c r="AJ4" t="n">
-        <v>295.5920814747972</v>
+        <v>295.5920814749033</v>
       </c>
       <c r="AK4" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.43108859</v>
       </c>
       <c r="AL4" t="n">
-        <v>3790.107210217787</v>
+        <v>3790.107210212388</v>
       </c>
       <c r="AM4" t="n">
-        <v>1.586901315836485</v>
+        <v>1.586901315867678</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.9995326874194723</v>
+        <v>0.9995326874194644</v>
       </c>
       <c r="AO4" t="n">
-        <v>344.8011005849182</v>
+        <v>344.8011005849826</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.832907494864151e-05</v>
+        <v>1.832907494864704e-05</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.0260669485687283</v>
+        <v>0.02606694856873707</v>
       </c>
       <c r="AR4" t="n">
-        <v>1006.765509745386</v>
+        <v>1006.765509745434</v>
       </c>
       <c r="AS4" t="n">
-        <v>717.8543407727487</v>
+        <v>717.8543407727601</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.4024648909438</v>
+        <v>1.402464890943843</v>
       </c>
       <c r="AU4" t="inlineStr">
         <is>
@@ -1228,19 +1228,19 @@
         </is>
       </c>
       <c r="AV4" t="n">
-        <v>-8.808231921619836e-14</v>
+        <v>-7.622333320078667e-12</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.0801380720291201</v>
+        <v>0.08013807202368027</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.01649951251672643</v>
+        <v>0.01649951251239877</v>
       </c>
       <c r="AY4" t="n">
         <v>0</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.04887187315681192</v>
+        <v>0.04887187315569974</v>
       </c>
       <c r="BA4" t="n">
         <v>0.01476668635558176</v>
@@ -1249,16 +1249,16 @@
         <v>0</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.7575909760275464</v>
+        <v>0.7575909757367996</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.7575909760275464</v>
+        <v>0.7575909757367997</v>
       </c>
       <c r="BE4" t="n">
-        <v>465567.653279428</v>
+        <v>465567.6532014448</v>
       </c>
       <c r="BF4" t="n">
-        <v>2.764081725206652</v>
+        <v>2.764081725377097</v>
       </c>
       <c r="BG4" t="n">
         <v>421784.4310884894</v>
@@ -1275,136 +1275,136 @@
         <v>165.3032</v>
       </c>
       <c r="C5" t="n">
-        <v>247.3527181711524</v>
+        <v>247.3527180860433</v>
       </c>
       <c r="D5" t="n">
-        <v>106.4523630976028</v>
+        <v>106.4523630785923</v>
       </c>
       <c r="E5" t="n">
-        <v>223.2739608140494</v>
+        <v>223.2739607288256</v>
       </c>
       <c r="F5" t="n">
-        <v>64.50916846156484</v>
+        <v>64.50916845704387</v>
       </c>
       <c r="G5" t="n">
-        <v>121.2135088116156</v>
+        <v>121.2135087541615</v>
       </c>
       <c r="H5" t="n">
-        <v>106.4523630976028</v>
+        <v>106.4523630785923</v>
       </c>
       <c r="I5" t="n">
-        <v>57.97076081404944</v>
+        <v>57.97076072882558</v>
       </c>
       <c r="J5" t="n">
-        <v>28.57138441629641</v>
+        <v>28.57138438521568</v>
       </c>
       <c r="K5" t="n">
-        <v>91968.07544910847</v>
+        <v>91968.07547853954</v>
       </c>
       <c r="L5" t="n">
-        <v>265.0738822227289</v>
+        <v>265.073882243853</v>
       </c>
       <c r="M5" t="n">
-        <v>391192.7474952545</v>
+        <v>391192.7475164071</v>
       </c>
       <c r="N5" t="n">
-        <v>3790.107210219714</v>
+        <v>3790.107210207712</v>
       </c>
       <c r="O5" t="n">
-        <v>1.209470080442246</v>
+        <v>1.20947008073282</v>
       </c>
       <c r="P5" t="n">
-        <v>0.9993527232080818</v>
+        <v>0.9993527232081554</v>
       </c>
       <c r="Q5" t="n">
-        <v>326.4990291571873</v>
+        <v>326.4990291702144</v>
       </c>
       <c r="R5" t="n">
-        <v>1.68099629974879e-05</v>
+        <v>1.680996299856356e-05</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0237361191451838</v>
+        <v>0.0237361191468266</v>
       </c>
       <c r="T5" t="n">
-        <v>1005.387991109501</v>
+        <v>1005.387991110354</v>
       </c>
       <c r="U5" t="n">
-        <v>716.6909782962551</v>
+        <v>716.6909782968933</v>
       </c>
       <c r="V5" t="n">
-        <v>1.402819376210856</v>
+        <v>1.402819376210797</v>
       </c>
       <c r="W5" t="n">
-        <v>134584.7794953978</v>
+        <v>134584.7795011873</v>
       </c>
       <c r="X5" t="n">
-        <v>295.5920814746895</v>
+        <v>295.5920814748027</v>
       </c>
       <c r="Y5" t="n">
-        <v>421784.431088389</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="Z5" t="n">
-        <v>3790.10721022493</v>
+        <v>3790.107210212928</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.586901315795662</v>
+        <v>1.586901315863347</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.9995326874194831</v>
+        <v>0.9995326874194645</v>
       </c>
       <c r="AC5" t="n">
-        <v>344.8011005848518</v>
+        <v>344.8011005849237</v>
       </c>
       <c r="AD5" t="n">
-        <v>1.832907494863578e-05</v>
+        <v>1.83290749486421e-05</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.02606694856871913</v>
+        <v>0.02606694856872943</v>
       </c>
       <c r="AF5" t="n">
-        <v>1006.765509745326</v>
+        <v>1006.765509745424</v>
       </c>
       <c r="AG5" t="n">
-        <v>717.8543407727353</v>
+        <v>717.8543407727545</v>
       </c>
       <c r="AH5" t="n">
-        <v>1.402464890943742</v>
+        <v>1.402464890943841</v>
       </c>
       <c r="AI5" t="n">
-        <v>101163.6534820931</v>
+        <v>101163.6535048227</v>
       </c>
       <c r="AJ5" t="n">
-        <v>272.4057276176981</v>
+        <v>272.4057276319685</v>
       </c>
       <c r="AK5" t="n">
-        <v>398539.104854272</v>
+        <v>398539.1048685608</v>
       </c>
       <c r="AL5" t="n">
-        <v>3790.107210215426</v>
+        <v>3790.107210203424</v>
       </c>
       <c r="AM5" t="n">
-        <v>1.294545205796032</v>
+        <v>1.294545206019011</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.9993895862154184</v>
+        <v>0.9993895862154687</v>
       </c>
       <c r="AO5" t="n">
-        <v>330.9890069244902</v>
+        <v>330.9890069331722</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.71810788714706e-05</v>
+        <v>1.718107887218966e-05</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.02430343449457724</v>
+        <v>0.02430343449567826</v>
       </c>
       <c r="AR5" t="n">
-        <v>1005.67010306208</v>
+        <v>1005.670103062741</v>
       </c>
       <c r="AS5" t="n">
-        <v>716.9221103425837</v>
+        <v>716.9221103430747</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.402760618697499</v>
+        <v>1.402760618697462</v>
       </c>
       <c r="AU5" t="inlineStr"/>
       <c r="AV5" t="inlineStr"/>
@@ -1415,19 +1415,19 @@
       <c r="BA5" t="inlineStr"/>
       <c r="BB5" t="inlineStr"/>
       <c r="BC5" t="n">
-        <v>0.7575909760272787</v>
+        <v>0.7575909757363793</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.3712522794463178</v>
+        <v>0.3712522792555351</v>
       </c>
       <c r="BE5" t="n">
-        <v>227276.1198752184</v>
+        <v>227276.1198075513</v>
       </c>
       <c r="BF5" t="n">
-        <v>2.764081725209086</v>
+        <v>2.764081725379538</v>
       </c>
       <c r="BG5" t="n">
-        <v>384876.5308892523</v>
+        <v>384876.5309034408</v>
       </c>
       <c r="BH5" t="inlineStr"/>
     </row>
@@ -1439,136 +1439,136 @@
         <v>165.3032</v>
       </c>
       <c r="C6" t="n">
-        <v>145.6121986140451</v>
+        <v>145.6121983155896</v>
       </c>
       <c r="D6" t="n">
-        <v>127.4533978265845</v>
+        <v>127.4533976579349</v>
       </c>
       <c r="E6" t="n">
-        <v>-70.41692813290356</v>
+        <v>-70.41692782099278</v>
       </c>
       <c r="F6" t="n">
-        <v>-28.92028038749417</v>
+        <v>-28.92028031215973</v>
       </c>
       <c r="G6" t="n">
-        <v>267.970795842633</v>
+        <v>267.9707954880473</v>
       </c>
       <c r="H6" t="n">
-        <v>127.4533978265845</v>
+        <v>127.4533976579349</v>
       </c>
       <c r="I6" t="n">
-        <v>-235.7201281329036</v>
+        <v>-235.7201278209928</v>
       </c>
       <c r="J6" t="n">
         <v>-61.6</v>
       </c>
       <c r="K6" t="n">
-        <v>58357.04486380704</v>
+        <v>58357.04496962592</v>
       </c>
       <c r="L6" t="n">
-        <v>236.5471474685072</v>
+        <v>236.5471475776114</v>
       </c>
       <c r="M6" t="n">
-        <v>362634.9311420121</v>
+        <v>362634.9312512194</v>
       </c>
       <c r="N6" t="n">
-        <v>3806.60059172928</v>
+        <v>3806.600591670818</v>
       </c>
       <c r="O6" t="n">
-        <v>0.8600600790194128</v>
+        <v>0.8600600801821493</v>
       </c>
       <c r="P6" t="n">
-        <v>0.9992877339599207</v>
+        <v>0.9992877339600607</v>
       </c>
       <c r="Q6" t="n">
-        <v>308.4092466888929</v>
+        <v>308.4092467600934</v>
       </c>
       <c r="R6" t="n">
-        <v>1.532542147797011e-05</v>
+        <v>1.532542148377476e-05</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0214796813889058</v>
+        <v>0.02147968139768598</v>
       </c>
       <c r="T6" t="n">
-        <v>1004.442057938836</v>
+        <v>1004.442057941705</v>
       </c>
       <c r="U6" t="n">
-        <v>716.0209431681167</v>
+        <v>716.0209431700134</v>
       </c>
       <c r="V6" t="n">
-        <v>1.402811003676188</v>
+        <v>1.402811003676478</v>
       </c>
       <c r="W6" t="n">
-        <v>67994.41481132149</v>
+        <v>67994.41488594578</v>
       </c>
       <c r="X6" t="n">
-        <v>247.1335326840259</v>
+        <v>247.1335327497128</v>
       </c>
       <c r="Y6" t="n">
-        <v>373236.3873348132</v>
+        <v>373236.3874005618</v>
       </c>
       <c r="Z6" t="n">
-        <v>3806.600591728241</v>
+        <v>3806.600591679462</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.9591382769868123</v>
+        <v>0.9591382777844412</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.9993189201784334</v>
+        <v>0.9993189201785343</v>
       </c>
       <c r="AC6" t="n">
-        <v>315.2427846250999</v>
+        <v>315.2427846670413</v>
       </c>
       <c r="AD6" t="n">
-        <v>1.588374437231983e-05</v>
+        <v>1.588374437575712e-05</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.02232553974921846</v>
+        <v>0.02232553975443699</v>
       </c>
       <c r="AF6" t="n">
-        <v>1004.710317929911</v>
+        <v>1004.710317932011</v>
       </c>
       <c r="AG6" t="n">
-        <v>716.2216138619026</v>
+        <v>716.2216138633368</v>
       </c>
       <c r="AH6" t="n">
-        <v>1.402792513496574</v>
+        <v>1.402792513496698</v>
       </c>
       <c r="AI6" t="n">
-        <v>95511.53530697635</v>
+        <v>95511.53533854136</v>
       </c>
       <c r="AJ6" t="n">
-        <v>272.3902447580617</v>
+        <v>272.390244772464</v>
       </c>
       <c r="AK6" t="n">
-        <v>398539.104854272</v>
+        <v>398539.1048686673</v>
       </c>
       <c r="AL6" t="n">
-        <v>3806.600591719596</v>
+        <v>3806.600591677635</v>
       </c>
       <c r="AM6" t="n">
-        <v>1.222245837999342</v>
+        <v>1.222245838338664</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.9994233207717295</v>
+        <v>0.9994233207717178</v>
       </c>
       <c r="AO6" t="n">
-        <v>330.9762966151473</v>
+        <v>330.9762966239131</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.717944933196169e-05</v>
+        <v>1.717944933268873e-05</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.02430027359603224</v>
+        <v>0.02430027359714657</v>
       </c>
       <c r="AR6" t="n">
-        <v>1005.557295381275</v>
+        <v>1005.557295382129</v>
       </c>
       <c r="AS6" t="n">
-        <v>716.9041366303959</v>
+        <v>716.9041366309202</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.40263843379062</v>
+        <v>1.402638433790785</v>
       </c>
       <c r="AU6" t="inlineStr">
         <is>
@@ -1576,40 +1576,40 @@
         </is>
       </c>
       <c r="AV6" t="n">
-        <v>-1.365311474987863e-10</v>
+        <v>-1.086086776069806e-11</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.1521247664218374</v>
+        <v>0.1521247663623878</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.02605083100937912</v>
+        <v>0.02605083100456352</v>
       </c>
       <c r="AY6" t="n">
-        <v>0.03854192193155626</v>
+        <v>0.0385419219151129</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.07332904444309904</v>
+        <v>0.073329044402534</v>
       </c>
       <c r="BA6" t="n">
         <v>0.01412344944227462</v>
       </c>
       <c r="BB6" t="n">
-        <v>7.95195955283345e-05</v>
+        <v>7.95195979027199e-05</v>
       </c>
       <c r="BC6" t="n">
-        <v>0.4721395359489044</v>
+        <v>0.4721395348721792</v>
       </c>
       <c r="BD6" t="n">
-        <v>0.8688805498524754</v>
+        <v>0.868880548502158</v>
       </c>
       <c r="BE6" t="n">
-        <v>391902.6858539889</v>
+        <v>391902.6857167994</v>
       </c>
       <c r="BF6" t="n">
-        <v>2.764081725179298</v>
+        <v>2.764081725258626</v>
       </c>
       <c r="BG6" t="n">
-        <v>384876.5308892523</v>
+        <v>384876.5309034408</v>
       </c>
       <c r="BH6" t="n">
         <v>0</v>
@@ -1623,136 +1623,136 @@
         <v>165.3032</v>
       </c>
       <c r="C7" t="n">
-        <v>140.3212760113909</v>
+        <v>140.3212760427272</v>
       </c>
       <c r="D7" t="n">
-        <v>124.7923069421639</v>
+        <v>124.7923069443729</v>
       </c>
       <c r="E7" t="n">
-        <v>-64.1633901030618</v>
+        <v>-64.16339016729614</v>
       </c>
       <c r="F7" t="n">
-        <v>-27.21047945775489</v>
+        <v>-27.21047948066794</v>
       </c>
       <c r="G7" t="n">
-        <v>261.2049690290631</v>
+        <v>261.2049690865479</v>
       </c>
       <c r="H7" t="n">
-        <v>124.7923069421639</v>
+        <v>124.7923069443729</v>
       </c>
       <c r="I7" t="n">
-        <v>-229.4665901030618</v>
+        <v>-229.4665901672961</v>
       </c>
       <c r="J7" t="n">
-        <v>-61.4610384642376</v>
+        <v>-61.46103847054349</v>
       </c>
       <c r="K7" t="n">
-        <v>60052.21932286851</v>
+        <v>60052.21931925309</v>
       </c>
       <c r="L7" t="n">
-        <v>238.335387850859</v>
+        <v>238.3353878502227</v>
       </c>
       <c r="M7" t="n">
-        <v>364425.086931535</v>
+        <v>364425.0869309087</v>
       </c>
       <c r="N7" t="n">
-        <v>3805.926346457984</v>
+        <v>3805.926346472625</v>
       </c>
       <c r="O7" t="n">
-        <v>0.8784001361871363</v>
+        <v>0.8784001361365676</v>
       </c>
       <c r="P7" t="n">
-        <v>0.9992908405718579</v>
+        <v>0.9992908405718921</v>
       </c>
       <c r="Q7" t="n">
-        <v>309.5740757000705</v>
+        <v>309.5740756996578</v>
       </c>
       <c r="R7" t="n">
-        <v>1.542041597733262e-05</v>
+        <v>1.542041597729837e-05</v>
       </c>
       <c r="S7" t="n">
-        <v>0.02162340593478567</v>
+        <v>0.02162340593473336</v>
       </c>
       <c r="T7" t="n">
-        <v>1004.488092730048</v>
+        <v>1004.488092729949</v>
       </c>
       <c r="U7" t="n">
-        <v>716.052372706131</v>
+        <v>716.052372706106</v>
       </c>
       <c r="V7" t="n">
-        <v>1.402813720082863</v>
+        <v>1.402813720082773</v>
       </c>
       <c r="W7" t="n">
-        <v>69153.42492240555</v>
+        <v>69153.42492482449</v>
       </c>
       <c r="X7" t="n">
-        <v>248.1662171678677</v>
+        <v>248.1662171716286</v>
       </c>
       <c r="Y7" t="n">
-        <v>374270.1171822675</v>
+        <v>374270.1171860383</v>
       </c>
       <c r="Z7" t="n">
-        <v>3805.926346466545</v>
+        <v>3805.926346471706</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.9714263760732172</v>
+        <v>0.9714263760924512</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.9993207655728058</v>
+        <v>0.9993207655728307</v>
       </c>
       <c r="AC7" t="n">
-        <v>315.9014755851188</v>
+        <v>315.9014755875153</v>
       </c>
       <c r="AD7" t="n">
-        <v>1.593773625839947e-05</v>
+        <v>1.593773625859566e-05</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.02240752225127154</v>
+        <v>0.02240752225156922</v>
       </c>
       <c r="AF7" t="n">
-        <v>1004.743047557534</v>
+        <v>1004.743047557608</v>
       </c>
       <c r="AG7" t="n">
-        <v>716.2443053129668</v>
+        <v>716.2443053130429</v>
       </c>
       <c r="AH7" t="n">
-        <v>1.402793767579773</v>
+        <v>1.402793767579727</v>
       </c>
       <c r="AI7" t="n">
-        <v>95736.27446816978</v>
+        <v>95736.27448383</v>
       </c>
       <c r="AJ7" t="n">
-        <v>272.3908604761348</v>
+        <v>272.3908604902877</v>
       </c>
       <c r="AK7" t="n">
-        <v>398539.1048542783</v>
+        <v>398539.1048684666</v>
       </c>
       <c r="AL7" t="n">
-        <v>3805.926346464784</v>
+        <v>3805.926346469946</v>
       </c>
       <c r="AM7" t="n">
-        <v>1.225120665087022</v>
+        <v>1.225120665223669</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.9994219785882873</v>
+        <v>0.9994219785883686</v>
       </c>
       <c r="AO7" t="n">
-        <v>330.9768017850345</v>
+        <v>330.9768017936396</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.717951411790792e-05</v>
+        <v>1.717951411862005e-05</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.02430039925708425</v>
+        <v>0.02430039925817391</v>
       </c>
       <c r="AR7" t="n">
-        <v>1005.561781122272</v>
+        <v>1005.561781122804</v>
       </c>
       <c r="AS7" t="n">
-        <v>716.9048513997647</v>
+        <v>716.9048514002324</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.402643292424233</v>
+        <v>1.402643292424061</v>
       </c>
       <c r="AU7" t="inlineStr">
         <is>
@@ -1760,40 +1760,40 @@
         </is>
       </c>
       <c r="AV7" t="n">
-        <v>-6.125824847380557e-11</v>
+        <v>1.123159898419601e-10</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.1520953544660112</v>
+        <v>0.152095354408388</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.02606502833860222</v>
+        <v>0.02606502833253807</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.03844839492184595</v>
+        <v>0.03844839490954387</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.07338763643893417</v>
+        <v>0.0733876363969278</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.01411603450007948</v>
+        <v>0.01411603450041699</v>
       </c>
       <c r="BB7" t="n">
-        <v>7.826026654942831e-05</v>
+        <v>7.826026896120628e-05</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.4532720502970686</v>
+        <v>0.453272050398897</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.8437559522333209</v>
+        <v>0.8437559524201355</v>
       </c>
       <c r="BE7" t="n">
-        <v>387750.3075906895</v>
+        <v>387750.3076545622</v>
       </c>
       <c r="BF7" t="n">
-        <v>2.764081725357795</v>
+        <v>2.764081725247597</v>
       </c>
       <c r="BG7" t="n">
-        <v>384876.5308892523</v>
+        <v>384876.5309034408</v>
       </c>
       <c r="BH7" t="n">
         <v>0</v>
@@ -1925,16 +1925,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0801380720291201</v>
+        <v>0.08013807202368027</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01649951251672643</v>
+        <v>0.01649951251239877</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04887187315681192</v>
+        <v>0.04887187315569974</v>
       </c>
       <c r="F2" t="n">
         <v>0.01476668635558176</v>
@@ -1943,22 +1943,22 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1899.046273759042</v>
+        <v>1899.046270675259</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9704858618063067</v>
+        <v>0.9704858627100869</v>
       </c>
       <c r="J2" t="n">
-        <v>2.838801746301563</v>
+        <v>2.838801746337564</v>
       </c>
       <c r="K2" t="n">
-        <v>1.019662553659307</v>
+        <v>1.019662552873666</v>
       </c>
       <c r="L2" t="n">
-        <v>306.8526584799027</v>
+        <v>306.8526587202213</v>
       </c>
       <c r="M2" t="n">
-        <v>72715.18842571997</v>
+        <v>72715.18834816648</v>
       </c>
       <c r="N2" t="n">
         <v>65</v>
@@ -1968,19 +1968,19 @@
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="n">
-        <v>0.005986879138009669</v>
+        <v>0.005986879123080919</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.01773325106068183</v>
+        <v>0.01773325102071028</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.005358119907490738</v>
+        <v>0.005358119895535228</v>
       </c>
     </row>
     <row r="3">
@@ -1988,62 +1988,62 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1520953544660112</v>
+        <v>0.152095354408388</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02606502833860222</v>
+        <v>0.02606502833253807</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03844839492184595</v>
+        <v>0.03844839490954387</v>
       </c>
       <c r="E3" t="n">
-        <v>0.07338763643893417</v>
+        <v>0.0733876363969278</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01411603450007948</v>
+        <v>0.01411603450041699</v>
       </c>
       <c r="G3" t="n">
-        <v>7.826026654942831e-05</v>
+        <v>7.826026896120628e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>3740.727355940733</v>
+        <v>3740.727362181584</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9466742018344821</v>
+        <v>0.9466741994439426</v>
       </c>
       <c r="J3" t="n">
-        <v>2.771494294463389</v>
+        <v>2.771494294725203</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8015560471067272</v>
+        <v>0.8015560488781459</v>
       </c>
       <c r="L3" t="n">
-        <v>288.3005494980852</v>
+        <v>288.300548888183</v>
       </c>
       <c r="M3" t="n">
-        <v>53032.4002605731</v>
+        <v>53032.40042119696</v>
       </c>
       <c r="N3" t="n">
         <v>-61.6</v>
       </c>
       <c r="O3" t="n">
-        <v>-1.028615583703587</v>
+        <v>-1.028615614784325</v>
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="n">
-        <v>0.00981592040538699</v>
+        <v>0.009815920416569788</v>
       </c>
       <c r="R3" t="n">
-        <v>2.947230815843241e-05</v>
+        <v>2.947230910712555e-05</v>
       </c>
       <c r="S3" t="n">
-        <v>0.02763730730179926</v>
+        <v>0.02763730732389571</v>
       </c>
       <c r="T3" t="n">
-        <v>0.01447941584275156</v>
+        <v>0.01447941585798306</v>
       </c>
       <c r="U3" t="n">
-        <v>0.005316006922857138</v>
+        <v>0.005316006930277299</v>
       </c>
     </row>
   </sheetData>
@@ -2068,7 +2068,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>reaction</t>
         </is>
       </c>
     </row>
@@ -2076,8 +2076,10 @@
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
-        <v>0.4952528385535162</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>[0.49525284]</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -2196,40 +2198,40 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.297999999895928</v>
+        <v>1.995562767104009</v>
       </c>
       <c r="C2" t="n">
-        <v>1.995562767173812</v>
+        <v>2.298000000034278</v>
       </c>
       <c r="D2" t="n">
-        <v>2.764081725357795</v>
+        <v>2.764081725247597</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8975830325202262</v>
+        <v>0.8975830325235511</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7568278671089416</v>
+        <v>0.7568278670488785</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1568157600039224</v>
+        <v>0.1568157600739622</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08635637288713599</v>
+        <v>0.0863563728771593</v>
       </c>
       <c r="I2" t="n">
-        <v>131333.446761379</v>
+        <v>131333.4467457202</v>
       </c>
       <c r="J2" t="n">
-        <v>80.72123341203381</v>
+        <v>80.72123340240947</v>
       </c>
       <c r="K2" t="n">
         <v>1627</v>
       </c>
       <c r="L2" t="n">
-        <v>-27.21047945775489</v>
+        <v>-27.21047948066794</v>
       </c>
       <c r="M2" t="n">
-        <v>140.3212760113909</v>
+        <v>140.3212760427272</v>
       </c>
       <c r="N2" t="n">
         <v>354.3469277460144</v>
@@ -2244,7 +2246,7 @@
         <v>421784.4310885898</v>
       </c>
       <c r="R2" t="n">
-        <v>374270.1171822675</v>
+        <v>374270.1171860383</v>
       </c>
       <c r="S2" t="n">
         <v>359003.5584869698</v>
@@ -2261,7 +2263,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ3"/>
+  <dimension ref="A1:AQ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2487,264 +2489,213 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>stator</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.018294</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.02616</v>
-      </c>
-      <c r="E2" t="n">
-        <v>43.03</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.007731</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.00254</v>
-      </c>
-      <c r="H2" t="n">
-        <v>50</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>65</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.00505</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.01912286864605749</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.1016</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.1016</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.1016</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.084785</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.084785</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.084785</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.118415</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.118415</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.118415</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.118415</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.118415</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.118415</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.71599881771735</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.71599881771735</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0.71599881771735</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0.02146843782305367</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.02146843782305367</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0.02146843782305367</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0.03363000000000001</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0.03363000000000001</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0.03363000000000001</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1.758627359861796</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0.6993119266055047</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>0.1930428134556575</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.06467468632777131</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0.0970948012232416</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>rotor</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.01524</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.02606</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-31.05</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.007249</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.00162</v>
-      </c>
-      <c r="H3" t="n">
-        <v>50</v>
-      </c>
-      <c r="I3" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="J3" t="n">
-        <v>-61.6</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.00447</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.0003</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.02232605854162319</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.1016</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.1016</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.1016</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.084785</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.08185000000000001</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.08185000000000001</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.118415</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.12135</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.12135</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0.118715</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0.12165</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0.12165</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0.6986814997939843</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0.6744952616398847</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0.6744952616398847</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0.02146843782305367</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0.02521567927477312</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0.02521567927477312</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0.036565</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0.03363000000000001</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0.03949999999999999</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0.257102584362989</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>1.637772288907632</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0.5848042977743668</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0.171527244819647</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0.06897503103876397</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>0.00820456720907972</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0.06216423637759017</v>
+          <t>['stator' 'rotor']</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[0.018294 0.01524 ]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>[0.02616 0.02606]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>[ 43.03 -31.05]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>[0.007731 0.007249]</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>[0.00254 0.00162]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[50. 50.]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>[ 0.  29.6]</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>[ 65.  -61.6]</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>[0.0005 0.0005]</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>[0.00505 0.00447]</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>[0.     0.0003]</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>[1. 1.]</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>[0.01912287 0.02232606]</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>[0.1016 0.1016]</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>[0.1016 0.1016]</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>[0.1016 0.1016]</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>[0.084785 0.084785]</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>[0.084785 0.08185 ]</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>[0.084785 0.08185 ]</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>[0.118415 0.118415]</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>[0.118415 0.12135 ]</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>[0.118415 0.12135 ]</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>[0.118415 0.118715]</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>[0.118415 0.12165 ]</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>[0.118415 0.12165 ]</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>[0.71599882 0.6986815 ]</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>[0.71599882 0.67449526]</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>[0.71599882 0.67449526]</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>[0.02146844 0.02146844]</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>[0.02146844 0.02521568]</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>[0.02146844 0.02521568]</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>[0.03363  0.036565]</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>[0.03363 0.03363]</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>[0.03363 0.0395 ]</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>[0.         0.25710258]</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>[1.75862736 1.63777229]</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>[0.69931193 0.5848043 ]</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>[0.19304281 0.17152724]</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>[0.06467469 0.06897503]</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>[0.         0.00820457]</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>[0.0970948  0.06216424]</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -2758,7 +2709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3099,6 +3050,23 @@
         <v>1.656058787927931e-09</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>3</v>
+      </c>
+      <c r="B20" t="n">
+        <v>19</v>
+      </c>
+      <c r="C20" t="n">
+        <v>70</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.276189921020611e-09</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2.25016352149333e-09</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/tests/regression_data/kofskey1972a_moustapha_1.xlsx
+++ b/tests/regression_data/kofskey1972a_moustapha_1.xlsx
@@ -2263,7 +2263,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ2"/>
+  <dimension ref="A1:AR2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2464,20 +2464,25 @@
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
+          <t>solidity</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
           <t>thickness_max_chord_ratio</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>thickness_te_opening_ratio</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>tip_clearance_height_ratio</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>diameter_le_chord_ratio</t>
         </is>
@@ -2679,20 +2684,25 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
+          <t>[1.42997704 1.70997375]</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
           <t>[0.19304281 0.17152724]</t>
         </is>
       </c>
-      <c r="AO2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>[0.06467469 0.06897503]</t>
         </is>
       </c>
-      <c r="AP2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>[0.         0.00820457]</t>
         </is>
       </c>
-      <c r="AQ2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>[0.0970948  0.06216424]</t>
         </is>
